--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:19:23+00:00</t>
+    <t>2021-09-12T07:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Level</t>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Young recruits for military service</t>
+  </si>
+  <si>
+    <t>partner_high_risk</t>
+  </si>
+  <si>
+    <t>Sexual partner of high risk group</t>
   </si>
   <si>
     <t>other</t>
@@ -537,7 +543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -749,6 +755,18 @@
       </c>
       <c r="D17" s="2"/>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:37:00+00:00</t>
+    <t>2021-09-18T10:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-18T10:16:13+00:00</t>
+    <t>2021-09-25T01:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-25T01:43:32+00:00</t>
+    <t>2021-09-26T03:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T03:05:54+00:00</t>
+    <t>2021-09-26T04:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T04:27:45+00:00</t>
+    <t>2021-09-30T09:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T09:59:38+00:00</t>
+    <t>2021-10-06T13:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:35:19+00:00</t>
+    <t>2021-10-06T13:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:42:37+00:00</t>
+    <t>2021-10-29T12:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:02:00+00:00</t>
+    <t>2021-10-29T12:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:05:23+00:00</t>
+    <t>2021-10-29T13:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:08:24+00:00</t>
+    <t>2021-10-29T13:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:58:33+00:00</t>
+    <t>2022-02-25T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/CodeSystem-cs-hiv-population.xlsx
+++ b/branches/main/CodeSystem-cs-hiv-population.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:36:43+00:00</t>
+    <t>2022-03-16T09:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
